--- a/Volunteers_2022/Volunteer Reports Being Coded/EmilieTorwalt_CoyoteReports.xlsx
+++ b/Volunteers_2022/Volunteer Reports Being Coded/EmilieTorwalt_CoyoteReports.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Farr\Github\EdmontonUrbanCoyotes\Volunteers_2022\Volunteer Reports Being Coded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{105A84E3-A918-48A7-B965-75B02B787460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F509C1-787B-409D-A54B-03A0FC92D771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB24D528-BCD0-4F15-8964-0204B31C119E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CB24D528-BCD0-4F15-8964-0204B31C119E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="667">
   <si>
     <t>sighting</t>
   </si>
@@ -738,13 +740,1349 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Between terwillegar drive and Turvey Bend/ edge terwillegar town/lake/service road</t>
+  </si>
+  <si>
+    <t>Walking my dog on leash briefly down path and entered dip through woods to access service road by terwillegar town.  My dog quickened his pace through dip, pulling me in a hurry.  Once on service road there was a smallish coyote arched back, tail between legs and hissing. I yelled NO at it and picked up some gravel and threw it at it.  It trotted into the woods where I just came from.  Then I noticed another larger one to my left (not as close) coming towards me slowly.  I yelled NO and threw gravel again.  Not sure if I should continue down road as unsure how many and if the one on my left would follow me.  Went back through dip in woods quickly and looked back to see coyote in grass/path where I just went through. Apparently there are signs on one end of this path/road but not where I entered on the side street by Turvey Bend.  I spoke to locals who confirmed there must be a den 100 yards in from the access point.  Maybe some extra signs on both ends warning of active den and not to walk there would be good.  I like coyotes generally and never have issues normally but clearly I was in the wrong place.</t>
+  </si>
+  <si>
+    <t>53 ave 174 Street</t>
+  </si>
+  <si>
+    <t>solo coyote sniffing light standard base, returned to ravine</t>
+  </si>
+  <si>
+    <t>23 rd avenue and saddleback road</t>
+  </si>
+  <si>
+    <t>lone female coyote came out of crescent across from St. Therese school.  She has a litter of 6 pups in that crescent.  She has been in the school yard several days now, suntanning? Crows are dive bombing her and she is jumping at them.  Apparently she approach and couple of kids walking their dog as well.  They ran to a truck in the area of help.  The guy in the truck then warned me as did several others.   She apparently went into the valley just north of the saddleback walkway.</t>
+  </si>
+  <si>
+    <t>Ellerslie Rd and Rutherford Gate</t>
+  </si>
+  <si>
+    <t>It was trying to cross the road</t>
+  </si>
+  <si>
+    <t>Rutherford road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 full grown coyotes, walking awar from 3 different people out walking their dogs, who clearly had just encountered these coyotes. I was driving and saw them walking before I saw the people who I mentioned previously. </t>
+  </si>
+  <si>
+    <t>112 Street NW and 25 Avenue NW</t>
+  </si>
+  <si>
+    <t>Coyote was initially crossing road (from park into neighbourhood). I honked the car horn. The coyote ran a short distance and stopped by the community mailbox. I honked again; however, the coyote did not move. As my house was near, I parked the car, exited, and then ran towards the coyote. It ran from me into Blue Quill Park (open space on map), then lay down, very comfortably. By then, a large crow was also following it quite closely._x000D_
+I am not concerned for my own children as they are not small, but there are quite a few small children in this community.</t>
+  </si>
+  <si>
+    <t>I noticed what at first I thought was a dog on my neighbour&amp;#039;s yard, then realized it had a bushy tail and suspected that it was a coyote. I was either coming or leaving home, entering or exiting my car in the house to the north of the location pin, and the coyote seemed very comfortable, it did not try to run even when I attempted to take a photo (because I was still not sure what it was). After trying to take a photo, I did take one or two running steps towards it, at which point it left the neighbour&amp;#039;s yard.</t>
+  </si>
+  <si>
+    <t>147 street x 109 ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A medium sized coyote trotted south from 109 Ave to 147 street then turned east into the alley. It did not seem distressed or injured or chasing anything or being chased. It was notable simple because it was almost 10am on a Saturday and I was surprised to see it out and about. </t>
+  </si>
+  <si>
+    <t>James Mowatt trail and Bowen Wynd</t>
+  </si>
+  <si>
+    <t>Full grown coyote hanging out in the field where children play</t>
+  </si>
+  <si>
+    <t>13/06/2021</t>
+  </si>
+  <si>
+    <t>111 st and 23 ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was around the sobeys trying to cross and get back to the ravine. _x000D_
+He looked a little thin but fine. Just kind of chilling and trying to cross the street. We were driving past. </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I followed 2 smallish coyotes (only because we were headed the same way) along trail that goes around south parking lot in Rainbow valley. Probably for close to a minute, with the coyotes pausing, one taking a pee break, as they eyed me warily.  They left the trail just out of my sight around a bend. _x000D_
+</t>
+  </si>
+  <si>
+    <t>14/06/2021</t>
+  </si>
+  <si>
+    <t>167C Ave McConachie  Way NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heading South on McConachie Way. Saw a rabbit and bolted West down 167C Ave. More than likely the same coyote reported around our area last year. </t>
+  </si>
+  <si>
+    <t>58 ave, riverbend rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looked big and healthy. Alone. It was walking along the path. </t>
+  </si>
+  <si>
+    <t>Ellerslie Road and 111st</t>
+  </si>
+  <si>
+    <t>Ran across the road into a apartment complex.  I have been seeing quite a few coyotes in my neighborhood.  Coming down walking baths and up streets.  This is a concern when I&amp;rsquo;m out for a walk with my kids and one follows us down a path or street.  I have lived in the MacEwan neighborhood for almost 18 years and this is the worst I have ever seen.  I like seeming them in the fields behind my house but when they are following my kids and wife through the streets that is no longer ok.</t>
+  </si>
+  <si>
+    <t>Ellerslie Road and 111 St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very healthy adult carrying a healthy pup in its mouth. It was running on the green space along the laneway behind the Save On Foods, crossed in front of the Condo parking entrance and went behind a fence. My guess is it was moving it&amp;#039;s pups. Pup was still all gray in colour and about the size of a teddy bear. It was in no way concerned about cars driving nearby, and determined on where it was going. </t>
+  </si>
+  <si>
+    <t>15/06/2021</t>
+  </si>
+  <si>
+    <t>101A Ave between 57 &amp;amp; 52 Street</t>
+  </si>
+  <si>
+    <t>4 coyote followed me and my dog for several blocks. We were on the n side of 101A Ave, the coyotes remained on the south side of the Ave tracking us from 57 to 52 St. They disappeared into the copse of trees on the west side of the 50 St / 101 Ave electrical substation.</t>
+  </si>
+  <si>
+    <t>16/06/2021</t>
+  </si>
+  <si>
+    <t>Tomlinson Common NW &amp;amp; Thibault Way NW</t>
+  </si>
+  <si>
+    <t>Coyote was sitting alone on the edge of the tree line. I believe this is the same coyote I sighted the last two times I visited this area. We immediately backed out of the area. Minutes later we noticed that it had walked south along the tree line. Then walked east towards the late. It looked fine.</t>
+  </si>
+  <si>
+    <t>17/06/2021</t>
+  </si>
+  <si>
+    <t>Blue Quill Community League hill facing 25 Ave and 112 st</t>
+  </si>
+  <si>
+    <t>Two coyotes sleeping on the hill. They have been charging at dogs when people are walking past on the sidewalk on the mornings of June 16 &amp;amp; 17 (reported on community league forum).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Ave 115 St </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A coyote charged my dog in front of our house, and chased her into our backyard where I was doing yard work. It ran off when it saw me. </t>
+  </si>
+  <si>
+    <t>27 Ave 117 st nw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coyote was wandering up and down the residential streets and had ripped open all.the garbage bags as it was collections day.  He was not at all intimidated by humans </t>
+  </si>
+  <si>
+    <t>Saddleback Road and 112 Street NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came very close to townhouse gates, moving quite quickly </t>
+  </si>
+  <si>
+    <t>25 Ave, 113 Street</t>
+  </si>
+  <si>
+    <t>Aggressive coyote charged at human and dog snarling and growling - yelling, rock throwing and kicking only made it back off slightly - it did NOT run away</t>
+  </si>
+  <si>
+    <t>Blue quill community field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laying 5 feet from main sidewalk._x000D_
+Pulled over vehicle to yell/honk at it to get it to move away - opened eyes but wouldn&amp;rsquo;t even lift its head. No fear or desire to move. </t>
+  </si>
+  <si>
+    <t>What3words location: trail.brief.explorer</t>
+  </si>
+  <si>
+    <t>Large grey, white, orange coyote. Healthy tail, but appeared to be limping. Looked at me about 150m away and walked into trees and underbrush out of view.</t>
+  </si>
+  <si>
+    <t>18/06/2021</t>
+  </si>
+  <si>
+    <t>wolf willow ravine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single coyote followed and crossed walking path </t>
+  </si>
+  <si>
+    <t>19/06/2021</t>
+  </si>
+  <si>
+    <t>127 Street &amp;amp; Villa Avenue</t>
+  </si>
+  <si>
+    <t>Was walking my dog.  Encountered 3 coyotes (seemed adult) as I rounded the corner heading North.  2 coyotes approached, one hung back.  Made myself large-ish, made noise, one lunged toward me before I picked up my dog and backed away.  Fortunately a car came down the street and they backed off a bit further. I&amp;#039;ve had a few encounters previously; this felt the most potentially risky.</t>
+  </si>
+  <si>
+    <t>111 st / saddleback road</t>
+  </si>
+  <si>
+    <t>129th avenue and fort road</t>
+  </si>
+  <si>
+    <t>Skinny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122 Street 41 Avenue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote Took my friends cat by the head _x000D_
+She chased the coyote and attacked it and coyote dropped cat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">122 street and 111 avenue in park on north side of Ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was walking my 7lb dog on leash and turned one way to see if anyone was coming down bike lane, turned other way and coyote was going back and forth side to side seeing how to get to my dog, it was only like 4 metres away. I grabbed dog, screamed at coyote, tried to scare it waving arms and yelling and it just stood and stared at me. Then I left and it went on the hill by the playground and stared at us </t>
+  </si>
+  <si>
+    <t>40street and 168A avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walked along 40 street and as I saw it I followed it as it was heading to a local park which I thought my kids were at and shooed it away towards Manning drive. </t>
+  </si>
+  <si>
+    <t>20/06/2021</t>
+  </si>
+  <si>
+    <t>103 Avenue 137 Street</t>
+  </si>
+  <si>
+    <t>Calmly walking through the neighborhood. He/She followed us for about 10 metres and then wandered away. I did take photos</t>
+  </si>
+  <si>
+    <t>St. George&amp;rsquo;s Crescent &amp;amp; 102 Ave</t>
+  </si>
+  <si>
+    <t>Two coyotes in ravine bush by St George&amp;rsquo;s Crescent trailing us as we walked our dog</t>
+  </si>
+  <si>
+    <t>St Georges Crescent and 135 St - green space above MacKinnon Ravine</t>
+  </si>
+  <si>
+    <t>two sightings in same green space.  June 11 at 9:30 am and June 18 at about same time.  single coyote.  healthy looking.  came out when the dog was sniffing at the periphery.  no engagement but was close and kept an eye until we moved off</t>
+  </si>
+  <si>
+    <t>St. Georges Cres and Stony Plain Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One coyote approached me and my dog coming from the southeast side  of St. George Cres. I yelled and threw a stick at her and she jumped into the ravine on the east side the cres, emerging moments later with a second coyote. Both escorted us south on St. Georges until I threw more sticks. they jumoped back into the ravine and did not reapper. </t>
+  </si>
+  <si>
+    <t>22/06/2021</t>
+  </si>
+  <si>
+    <t>Callaghan Drive SW, north end of stormwater pond.</t>
+  </si>
+  <si>
+    <t>A lone coyote was looking for prey, moving in and out of the tall grasses/bushes on the northwest side of the Callaghan stormwater pond. A lone male was walking northbound on the walking path and the coyote fled eastwards towards Blackmud Creek once he noticed the person.</t>
+  </si>
+  <si>
+    <t>23/06/2021</t>
+  </si>
+  <si>
+    <t>79 St NW and 124 Ave</t>
+  </si>
+  <si>
+    <t>Walking coyote in the front of the house&amp;#039;s. The Magpies scream wake me up.</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>25/06/2021</t>
+  </si>
+  <si>
+    <t>72 avenue nw and 111 street nw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back yard </t>
+  </si>
+  <si>
+    <t>26/06/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the second time this coyote come. It&amp;#039;s right under my bedroom window. I think it smells my cat. </t>
+  </si>
+  <si>
+    <t>Blackmore Court and Blackmud Creek Crescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This morning I heard two magpies making noise outside, looked up and saw a healthy looking lone coyote in my front yard that was just going yard to yard sniffing. I have never seen a coyote so close before and was just very surprised.  </t>
+  </si>
+  <si>
+    <t>75 street 152C Ave</t>
+  </si>
+  <si>
+    <t>walked from SE down middle of street, circled several parked cars. chased rabbit from neighbor&amp;rsquo;s driveway back to area it came from.</t>
+  </si>
+  <si>
+    <t>27/06/2021</t>
+  </si>
+  <si>
+    <t>111th and Elersile</t>
+  </si>
+  <si>
+    <t>Seen by east side of the intersection, going between side walks, clearly panting (possibly due to heat exhaustion)</t>
+  </si>
+  <si>
+    <t>Near Rutherford</t>
+  </si>
+  <si>
+    <t>It was alone and it was standing there but then left when it looked at us</t>
+  </si>
+  <si>
+    <t>111 street Ellerslie Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looked very overheated, alone, shaggy looking, jaunt pace running on the grass </t>
+  </si>
+  <si>
+    <t>28/06/2021</t>
+  </si>
+  <si>
+    <t>west of Rabbit Hill Rd, on utility corridor path</t>
+  </si>
+  <si>
+    <t>lone coyote; appeared young; sandy colour coat; looked at me then started running east on grassy surface next to the path</t>
+  </si>
+  <si>
+    <t>134 St NW &amp;amp; 153 Ave</t>
+  </si>
+  <si>
+    <t>Lone coyote walking in the long grass on the mixed use pathway between the townhomes along 153rd and the houses in Skyview/Cumberland, headed East, just going about it&amp;#039;s business. My dog and I were quite close, but no interaction.</t>
+  </si>
+  <si>
+    <t>100 avenue 140 street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My cat and I were cooling off in the backyard with the gate open and she went from sleeping to a top speed run in a second. I ran after her thinking it was a cat but she was chasing a coyote who tried to enter her yard. I yelled at him as he was running away. Because of the heat we stayed out, with the gate closed and an hour later he was back. He was on my driveway two feet from the back gate. I put the cat in the house, grabbed a handful of gravel and chased him away a second time. They&amp;#039;re getting braver and less fearful over the 20 years I&amp;#039;ve been here. I&amp;#039;m sitting outside now with a shovel for protection. I&amp;#039;m wondering how many other cats are as brave/foolish as mine to aggress against a coyote. </t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>S. Terwillegar blvd NW &amp;amp; Southesk Landing</t>
+  </si>
+  <si>
+    <t>Around 4am, I had the screen door open and heard a thump. Looked up to see that a coyote had chased a cat onto my front porch. It grabbed the cornered cat and headed toward park. The cat fought back, got away and they bolted east down S. Terwillegar and I lost sight of them.</t>
+  </si>
+  <si>
+    <t>30/06/2021</t>
+  </si>
+  <si>
+    <t>3:30am, noticed a coyote patrolling the park. It didn&amp;#039;t cross the street into the residential area. It headed west toward the pond before I lost sight.</t>
+  </si>
+  <si>
+    <t>Blackmud Creek Drive and Blackmud Creek Crescent</t>
+  </si>
+  <si>
+    <t>Coyote was running along sidewalk at 4.15 pm. He was heading south then towards the west towards the Roberta MacAdams school yard. Very concerning that this is such a public area in the middle of the day when children would normally be walking home from school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142 st and 107 ave roundabout </t>
+  </si>
+  <si>
+    <t>Saw coyote in the green space in the middle of roundabout a second night in a row. Retreated into the bushes that are there. I suspect it may be living there but does appear to frequent the spot</t>
+  </si>
+  <si>
+    <t>104 avenue &amp;amp; 139 street</t>
+  </si>
+  <si>
+    <t>68st and 121 ave</t>
+  </si>
+  <si>
+    <t>Coyote leaving industrial area, heading west towards baseball diamond east of LRT tracks.</t>
+  </si>
+  <si>
+    <t>The hill/bushes between Victoria Park Road at the north end of the 5 hole of Victoria Golf Course</t>
+  </si>
+  <si>
+    <t>Coyote was alone. When I ran past it up going up the hill, it was half way up the hill between the golf course and the road. As I continued up, and another runner continued down, once we were about 300 feet on either side of it the coyote came up the hill, across the sidewalk, onto and across the eastbound road. I saw it hop the barrier to the westbound road (down Vic hill) but not what happened after. Including myself there were maybe 4-5 runners who would have seen it/passed it as it was coming up the hill/sitting on the hill.</t>
+  </si>
+  <si>
+    <t>142 St. and 87 Ave.</t>
+  </si>
+  <si>
+    <t>Coyote crossing the street</t>
+  </si>
+  <si>
+    <t>Aspen Drive West &amp;amp; 39A Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A healthy pair of young coyotes interacting with each other in a field at the top of the ravine. </t>
+  </si>
+  <si>
+    <t>Blue Quill Community League field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote charged us from across the field. I was walking two dogs on leash  saw it across hlthe field and turned around to leave before it saw us. It came at us at a dead run, teeth bared. It looked young and / or sick. I had a stick with me  which I used to keep it away. It backed off after zi started to aggressively wave at it._x000D_
+I have had multiple encounters with a pair of coyotes at 111 street and 23 ave. This may have been one of them. </t>
+  </si>
+  <si>
+    <t>71st and 140ave</t>
+  </si>
+  <si>
+    <t>Coyote was seen walking by the road, 2 nights ago a coyote was eating a cat</t>
+  </si>
+  <si>
+    <t>27 ave 122 st</t>
+  </si>
+  <si>
+    <t>1 single coyote attempted an attack on 2 small dogs but their owner scared it away. 20 minutes later a second showed up. It is now 7/12/2021 and the pair are back</t>
+  </si>
+  <si>
+    <t>54 St Georges Cres</t>
+  </si>
+  <si>
+    <t>Walking the dog, along St. Georges Cres when a coyote approached road width apart, he scared to the ravine by other people approaching</t>
+  </si>
+  <si>
+    <t>13/07/2021</t>
+  </si>
+  <si>
+    <t>Lansdowne Elementary School Ground</t>
+  </si>
+  <si>
+    <t>Saw a coyote near the east fence of the school grounds. As I approached down the lane alongside the grounds, the coyote saw me and then trotted west to the hill and rink area.</t>
+  </si>
+  <si>
+    <t>76 Street 119 Avenue</t>
+  </si>
+  <si>
+    <t>Was actually on the shared use path heading north. Spotted one coyote coming out of the brush next to the Fast Fence yard and I think a kit with it. The adult  kept going back and forth across the path, from the brush to the LRT tracks.</t>
+  </si>
+  <si>
+    <t>14/07/2021</t>
+  </si>
+  <si>
+    <t>MacEwan Road and McAllister Loop</t>
+  </si>
+  <si>
+    <t>This coyote has been seen in the neighborhood for the past 3 nights.  It doesn&amp;#039;t seem fazed by cars or people, I think there may be a den nearby as it seems to be the same coyote each night.</t>
+  </si>
+  <si>
+    <t>Lavigne Rd &amp;amp; 91 Ave</t>
+  </si>
+  <si>
+    <t>In the bushes near a construction site, 8:20am</t>
+  </si>
+  <si>
+    <t>27/05/2021</t>
+  </si>
+  <si>
+    <t>109 St &amp;amp; 90 Ave</t>
+  </si>
+  <si>
+    <t>On the trail underneath High Level Bridge, by Kinsmen pitch&amp;amp;putt, 9:30am</t>
+  </si>
+  <si>
+    <t>Emily Murphy parking lot</t>
+  </si>
+  <si>
+    <t>Just off the trail below Saskatchewan Dr</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>183 Street NW and 60 Ave NW</t>
+  </si>
+  <si>
+    <t>Single coyote on my front lawn. Coyote watched my dog on the opposite side of the fence (barking furiously) and ran off when I yelled and hit the fence. Looked healthy, was not disturbed by my dog (mid sized pit bull cross).</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>112 Street NW and 32 Ave</t>
+  </si>
+  <si>
+    <t>Single coyote early evening last night and then a pair about 530 AM, one of them emerging from under steps at house across the street. That address is 3212-112 Street</t>
+  </si>
+  <si>
+    <t>55 St and 39 Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 coyotes, one limping and not using one of its front paw/leg. Healthy coyote approached house sniffing bird feeder/bath.  Injured coyote stayed on sidewalk waiting. We see several trot down 55 St more nights than not.  Never any issues or concerns. . </t>
+  </si>
+  <si>
+    <t>19/07/2021</t>
+  </si>
+  <si>
+    <t>Rear of 32A Ave. &amp;amp; 104 Street NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 7:40 AM today I heard what sounded like a dog and coyote fight to the south of my property at 3207 104 St NW. Definitely high pitched coyote and lower pitched dog sounds, and the dog was in pain. At 7:45 AM, I saw one coyote loping leisurely along the top of the berm behind my house. It was large but not the largest I&amp;#039;d seen before. I grew up on a farm, but in 20 years never saw a coyote, even though we had them living by the dugout. My brother lives along Blackmud ravine and he&amp;#039;s seen one in 30 years on their pathway. I&amp;#039;ve seen 4 this spring so far during the day, so these coyotes here are not nocturnal anymore and the one this morning was bothering a neighbourhood dog. No one around here let&amp;#039;s their dogs run free ever so it is disconcerting to see coyotes allowed to run free while dogs are not. I think the City is mistaken in it&amp;#039;s belief that these coyotes are harmless. I have a new fence in my backyard and babysit my 3 year old granddaughter here every Monday. I can&amp;#039;t take her out front to water the flowers because I am concerned about the coyotes. Again, it doesn&amp;#039;t make sense to allow coyotes to run free in a city neighbourhood when dogs are not allowed to and there is less threat from dogs than coyotes. These coyotes are not behaving like wild coyotes that are nocturnal and leave humans alone.  </t>
+  </si>
+  <si>
+    <t>25 Ave 109 Street</t>
+  </si>
+  <si>
+    <t>One coyote in middle of fenced in field. it seemed to be eating something.</t>
+  </si>
+  <si>
+    <t>18/07/2021</t>
+  </si>
+  <si>
+    <t>Fox drive close Belgravia road</t>
+  </si>
+  <si>
+    <t>Ran into the forest in Belgravia road. It was alone.</t>
+  </si>
+  <si>
+    <t>32 Avenue &amp;amp; 104 St NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saw what appeared to be the same coyote as I reported this morning behind my property at 3207 104 St NW on the west side of the berm  this time. Definitely a female - she marked her territory squatting. I was out in my backyard with my 3 yr old granddaughter, and I made her go in the sunroom, then I started waving my arms and yelling at the coyote. It was halfway down the berm so it was in direct line of sight with me above the fence. The coyote just looked at me and kept marking it&amp;#039;s territory and slowly continued on with walking south without any reaction. I suspect there are coyotes living in the clump of trees at 34 Ave &amp;amp; Calgary Trail as I live very near there and the ones I&amp;#039;ve seen in May and now were travelling north-south or south-north along the berm. That clump of trees is not big enough to provide a sustainable habitat, and I suggest that the trees be trimmed up to discourage their use of this site again given that any pups are likely weaned now. This female is the same or similar to the coyote I saw this morning after I heard a dog-coyote fight to the south of my property. I have a new fence with tight boards but I now wonder if coyote can jump or climb over a 6 foot fence. That&amp;#039;s why I made my grandchild go into the sunroom, and then we went into the house. My neighbours have trees along most of their fence so they probably don&amp;#039;t see as much as I do, although there are retired couples on both sides of me who spend more time in their backyards while I am working all day inside except Sat-Monday. It&amp;#039;s odd that I saw this coyote today 2-1/2 hours after sunrise and at 1:50 pm at midday. It was not afraid of me when I yelled at it, waved my arms and ran towards it. This coyote also looked thinner than the ones I saw in May. </t>
+  </si>
+  <si>
+    <t>21/07/2021</t>
+  </si>
+  <si>
+    <t>60th Ave NW and 104 St NW (it was in the small field to the east of that intersection)</t>
+  </si>
+  <si>
+    <t>Was lying in the field. Looked up as I biked by.</t>
+  </si>
+  <si>
+    <t>20/07/2021</t>
+  </si>
+  <si>
+    <t>60th Ave NW and 104 St NW (it was crossing the trail to the east of that intersection)</t>
+  </si>
+  <si>
+    <t>Trotted across the trail as I was coming up the trail. It glanced at me but kept moving. I made some noise as I went up the trail the rest of the way to make sure I didn&amp;#039;t startle it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 street 189 Ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking my dog on the green space between the henday and 95ave - what looks like a you get coyote came right up to us about 4 feet away. Stocked us while I retreated off the green space. </t>
+  </si>
+  <si>
+    <t>93A Ave 83 St.</t>
+  </si>
+  <si>
+    <t>My son, who observed this sighting said the there was a lot of barking from dogs in the neighborhood  until the coyotes disappeared  into a vacant property</t>
+  </si>
+  <si>
+    <t>22/07/2021</t>
+  </si>
+  <si>
+    <t>millbourne road east 41 a avenue</t>
+  </si>
+  <si>
+    <t>91 street and 34 ave</t>
+  </si>
+  <si>
+    <t>following 91st street north on the grass hill next to the residential area.  Looked like a young one. I was riding my bike by it.  As I got closer to it (50 feet) it disappeared into the trees looking back to make sure I wasn&amp;#039;t following.  It looked small but healthy.</t>
+  </si>
+  <si>
+    <t>23/07/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160 60st </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very residential walking around looking for food </t>
+  </si>
+  <si>
+    <t>116 Ave. 64 street</t>
+  </si>
+  <si>
+    <t>stopped to look and headed north once I was clear</t>
+  </si>
+  <si>
+    <t>104 St and 36 ave</t>
+  </si>
+  <si>
+    <t>Lone coyote in neighbours backyard. Came close to the chain link fence separating our yards, our small dog was barking at it.</t>
+  </si>
+  <si>
+    <t>104 St and 36 Ave</t>
+  </si>
+  <si>
+    <t>Coyote was laying in the green space on the west side of the Calgary Trail fence. It was very close to a home with small children and a puppy.</t>
+  </si>
+  <si>
+    <t>142 st 98 ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in Mackenzie ravine with our dogs, and saw a young coyote run from the bushes on the south side, across the path to the bushes on the north side. It passed a group of about 5 people about 50m away. </t>
+  </si>
+  <si>
+    <t>74 Ave NW / Saskatchewan Drive</t>
+  </si>
+  <si>
+    <t>Appeared healthy but it was some distance away. It was by itself. I was jogging so I just observed it.</t>
+  </si>
+  <si>
+    <t>25/07/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Ave 116 St The 116 stairs into the river valley. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coyote appeared out of the bushes within four feet behind me and my puppy. It was not scared even though I was yelling. It did not go back into the bushes until I walked towards it. It stayed in the bushes, but stalked us for a bit. </t>
+  </si>
+  <si>
+    <t>24/07/2021</t>
+  </si>
+  <si>
+    <t>multi use trail between Victoria hill and Victoria golf course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote lunged at me and my 60 pound dog from behind and tried to grab my dogs legs. It stayed on path, snarling and would move towards us if we tried to leave. I yelled, waved my arms around, it would not move off the path, continued to be aggressive with open mouth and lunging towards us. It was extremely aggressive.  It did not move away until 3 cyclists stopped and we shouted and threw sticks at it. </t>
+  </si>
+  <si>
+    <t>26/07/2021</t>
+  </si>
+  <si>
+    <t>Northeast of Terwillegar footbridge</t>
+  </si>
+  <si>
+    <t>Rutherford Road SW and 16 Ave SW</t>
+  </si>
+  <si>
+    <t>Coyote observed exiting residential from the west, crossed Rutherford Road at intersection and proceeded east beside school and condo building at 1820 Rutherford Road SW at 6:30 am.</t>
+  </si>
+  <si>
+    <t>121 St NW and Aspen Drive West NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two coyotes laying/relaxing on the grass on the green space, unbothered by passing vehicles/bikes/pedestrians.     </t>
+  </si>
+  <si>
+    <t>122 St NW near 41 Ave NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lone coyote (adult size) wondering on residential street and people&amp;#039;s front years. I stayed in-door.  </t>
+  </si>
+  <si>
+    <t>27/07/2021</t>
+  </si>
+  <si>
+    <t>142 st NW and Fox Drive (in the strip of grass next to the horse field, south of 142 street)</t>
+  </si>
+  <si>
+    <t>It was standing next to the road as I biked down the hill. I rang my bike bell, but it didn&amp;#039;t move until I was about 12m away from it. It ran a few meters away from the trail and then stood and looked as I continued past it down the hill. It didn&amp;#039;t seem to be very scared of me (and remained where it was despite my bike bell ringing loudly) which made me a bit nervous.</t>
+  </si>
+  <si>
+    <t>Manning Drive near clairview lrt by shell gas station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family roaming into the open field behind the shell gas station. Looking for food, they just watched as I walked by. No growling or threatening situation </t>
+  </si>
+  <si>
+    <t>28/07/2021</t>
+  </si>
+  <si>
+    <t>81 Av and 81 St</t>
+  </si>
+  <si>
+    <t>Seemed young, looked healthy, wasnt particularily wary of me but did keep distance. Sighting at 22:26 PM.</t>
+  </si>
+  <si>
+    <t>136A Avenue &amp;amp; 135 Street</t>
+  </si>
+  <si>
+    <t>Your map is not working! 1 coyote heading east on the north side of 136A Ave at 2:53 AM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3139 winspear creascent sw </t>
+  </si>
+  <si>
+    <t>I saw in my front yard then walk away to my beside vacant lot</t>
+  </si>
+  <si>
+    <t>29/07/2021</t>
+  </si>
+  <si>
+    <t>106 Ave &amp;amp; 34 Street</t>
+  </si>
+  <si>
+    <t>One coyote in the greenspace along 34 Ave. It was just travelling Eastward along the trees behind the fences.</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackmud creek on the path between Taylor Seminary and the creekitself. </t>
+  </si>
+  <si>
+    <t>2 chayotes on the main path and one in the trees cornered me and my dog. I called my husband as I was close to home and he ran over making loud sounds and throwing rocks from the path towards them._x000D_
+_x000D_
+(Map won&amp;#039;t work for me but I do have the exact location)</t>
+  </si>
+  <si>
+    <t>31/07/2021</t>
+  </si>
+  <si>
+    <t>34 ave 106 st</t>
+  </si>
+  <si>
+    <t>2 coyotes was chasing a older lady with a black lab. I stopped and scared the coyotes off so she could get home .</t>
+  </si>
+  <si>
+    <t>136A Ave &amp;amp; 135 St</t>
+  </si>
+  <si>
+    <t>Your map is not working on firefox!  1 coyote heading east at 11:10 PM on the north side of 136A Avenue.</t>
+  </si>
+  <si>
+    <t>Mill creek ravine off leash dog area 85 st NW and 71 ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 big coyotes on the creek at the off leash dog area while we were walkin. My dog went crazy and ran to them and they ran into the bushes and went up to the field, I went after my dog picked him up and one coyote was coming to us and I started to yelling him and we went back in the creek and left immediately </t>
+  </si>
+  <si>
+    <t>Ellerslie &amp;amp; 75 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just sitting alone in the green space behind the softball fields, did have an interaction with a dog &amp;amp; walker that yelled &amp;amp; spooked it away </t>
+  </si>
+  <si>
+    <t>Cavanagh community 3732 Crang Vista Dr Sw T6W4G9</t>
+  </si>
+  <si>
+    <t>2 coyote spotted on ring camera. 9th sept morning</t>
+  </si>
+  <si>
+    <t>Cavanagh area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creekside of cavanagh </t>
+  </si>
+  <si>
+    <t>Captured in my home security cameras. There were two of them. One of them passed through my backyard. Feeling not safe as they are wild animals and we can&amp;#039;t wait for their attack on human and kids.</t>
+  </si>
+  <si>
+    <t>132 St &amp;amp; 105 Ave</t>
+  </si>
+  <si>
+    <t>4 coyotes in a pack</t>
+  </si>
+  <si>
+    <t>123 ave 88 str</t>
+  </si>
+  <si>
+    <t>2 coyotes hunting in neighbors yard. I had to go and chase them away. Didn&amp;#039;t see anything in their mouths but my neighbors cat has been missing ever since! One of the coyotes was still around the neighborhood laying in a person&amp;#039;s yard during the day. Why can&amp;#039;t the cities relocate them to the country! These coyotes are not afraid of people just walking up and down our streets. A friend of mine had one chase her back to her vehicle. I understand having a few in the city but it&amp;#039;s getting out of control we need to do something about this. They&amp;#039;re not just hunting at night or early morning they hunt during the day I&amp;#039;m going to people&amp;#039;s yards and take their pets!</t>
+  </si>
+  <si>
+    <t>Pond west of Desrochers Cres SW</t>
+  </si>
+  <si>
+    <t>Multiple sightings in this area while walking our dog and in the treed area by St Thomas Aquinas school</t>
+  </si>
+  <si>
+    <t>122 Ave and 135 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two coyotes, both appeared healthy and well fed but it was dark out. I was walking my large dog (110lbs) north on 135 street towards 122 ave when I saw one coyote on the sidewalk going east. We turned back around and headed south away from it. As I was turning I also saw a second coyote in the street near the first coyote. My dog noticed them but did not bark, they also noticed my dog and then turned south and started walking towards us. They weren&amp;#039;t running, just trotting, but they followed us the whole way home. </t>
+  </si>
+  <si>
+    <t>Terwilliger and Anthony Henday</t>
+  </si>
+  <si>
+    <t>Lone coyote waiting at the side of the road to have a chance to cross Terwilliger dr from east to west</t>
+  </si>
+  <si>
+    <t>13/09/2021</t>
+  </si>
+  <si>
+    <t>Caernarvon school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 30 am heard coyotes in the alley behind my house in the alley directly accross from the school, went out &amp;amp; scared them away by making noise, chased them a small ways towards the school &amp;amp; they left towards the 7/11. See them around sometimes but theyre starting to scope peoples yards vs hanging out in the school field </t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>145 ave 117 st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 very healthy looking large coyotes at 330 am </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66st at Ellerslie Rd </t>
+  </si>
+  <si>
+    <t>Walker neighborhood. Pond on the SE corner of the intersection. See them here all the time. Your sighting map is not working for mobile.</t>
+  </si>
+  <si>
+    <t>17/09/2021</t>
+  </si>
+  <si>
+    <t>136A Avemue &amp;amp; 135 Street</t>
+  </si>
+  <si>
+    <t>1 coyote on the north side of 136A Ave heading east at 2:30 AM.</t>
+  </si>
+  <si>
+    <t>Whitemud Park, about 400m in on the main trail (from the parking lot) on the right by large fallen trees</t>
+  </si>
+  <si>
+    <t>There were two of them, the biggest I&amp;#039;ve ever seen. I got the feeling it was a male/female pair. One of them was using its hind legs to kick up a bunch of leaves and dirt. Another couple saw them and left the park out of fear, exclaiming that they were the largest they had ever seen. They were not overly fearful, and kept their eyes fixed on us for the whole two minutes or so we observed. They were probably close to 25 feet from us, and we first spotted them walking along the main trail</t>
+  </si>
+  <si>
+    <t>20/09/2021</t>
+  </si>
+  <si>
+    <t>Rutherford Road and 16 Ave</t>
+  </si>
+  <si>
+    <t>Saw the coyote in small ally leading from 16th Ave to Johnny Bright School. It was standing there, then I went to the other bus stop on Rutherford Road and 18 Ave and within minutes of arriving, I saw the coyote across the street from my bus stop. I was at the bus stop around 6:35 am</t>
+  </si>
+  <si>
+    <t>Calgary Trail and 32 Ave</t>
+  </si>
+  <si>
+    <t>One coyote in really good shape, looked like a young one (about 2 to 2-1/2 ft. tall) was hunting behind my property in the deep grass on the west side of the berm on the west side of Calgary Trail right behind my property at 3207 104 Street NW, Edmonton, AB for about 20 minutes. My 3 yr old granddaughter and I were playing in my glassed in sunroom in the backyard, and she didn&amp;#039;t notice the coyote so I didn&amp;#039;t want to alarm her. I would have pulled out the water hose but I didn&amp;#039;t want my granddaughter to follow me into the yard in case the coyote jumped the fence. I hate having coyotes behind my place - I&amp;#039;m terrified of dogs, let alone coyotes and a pack of five was seen by my next door neighbour this spring. I&amp;#039;ve seen 2 huge ones before as well as several lone ones. Since the City is so gungho on making coyotes live here, are they going to offer us funding for deterrents like fence rollers? It&amp;#039;s only a matter of time before they become aggressive with humans like they are in Vancouver. I am shocked that the new garbage bins don&amp;#039;t have latches to deter coyotes and dogs from tipping them. It is a no brainer that the design the City chose will only attract them into our yards and we won&amp;#039;t be safe on garbage day.. At least publish some information on what deterrents work so we can make informed choices on how to safely deter them from threatening our children and pets, and eventually adults, too.</t>
+  </si>
+  <si>
+    <t>21/09/2021</t>
+  </si>
+  <si>
+    <t>103 Ave and 122 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 young coyotes on sidewalk/road at 12:15 am Tues 21st Sept. Came from west on 2 sides of my building and ran east into Paul Kane Park. One was quite close.  Waved my arms and it ran back down the Street.  Other two went deeper into park past a man walking a large dog.  The dog barked and possibly scared them off.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">117st and 34 ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyotes were following me kept there distance but also kept pace with me and my dog. Tried stomping and screaming no luck. they followed me about two blocks I threw a poo bag filled with well we can guess what it was filled with  and they ran. They came back and went their own way. they seemed a little brave but also seemed healthy all legs and eyes and ear and tail. </t>
+  </si>
+  <si>
+    <t>East of Terwillegar drive and south of Haddow drive</t>
+  </si>
+  <si>
+    <t>Walking dogs and coyote was stalking them in the grass. Coyote making noise to lure dogs over</t>
+  </si>
+  <si>
+    <t>Lone coyote hunting in field across from Century Park Condos.</t>
+  </si>
+  <si>
+    <t>On the corner of 144 avenue &amp;amp; 51 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was quite close - I was out for a run and it was just across the street from me where I was about to cross to, it then crossed the street towards me/my side (I backed away to different direction, it was very clearly comfortable around humans. It looked at me a bit but ultimately continued on in a different direction. Looked well fed, I have noticed a large drop in rabbits in our area though which makes sense, as there seems to be a lot of sightings of coyotes in my area, not the first time I&amp;#039;ve seen one (Last spring one was hanging out by my kitchen window).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roper Park </t>
+  </si>
+  <si>
+    <t>A pack of coyotes about 6 or 7 strong resting on the shore of the smaller lake a short distance form the hiking trail. I left the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terwillegar drive and Terwillegar Towne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North of church walking dog. Coyote stocking dog. Coyote aggressive when dog came close. 2 spotted tonight </t>
+  </si>
+  <si>
+    <t>22/09/2021</t>
+  </si>
+  <si>
+    <t>Green space between 36 Ave NW and 35A Ave NW at 87 Street NW</t>
+  </si>
+  <si>
+    <t>2 coyotes followed my dog and myself along the pathway. They didn&amp;#039;t seem aggressive, possibly just curious. My guess is that they were, what would be equal to, 2 or 3 houses away._x000D_
+_x000D_
+I yelled at them to get and they kept that distance but the continued to follow us down 87 Street until I changed direction.</t>
+  </si>
+  <si>
+    <t>victoria trail and 138 ave</t>
+  </si>
+  <si>
+    <t>Lots of kids in this area, out walking to and from school</t>
+  </si>
+  <si>
+    <t>63 Ave east of 180 st</t>
+  </si>
+  <si>
+    <t>Crossed my front lawn headed west. Appeared healthy</t>
+  </si>
+  <si>
+    <t>23/09/2021</t>
+  </si>
+  <si>
+    <t>Parking lot at Callingwood Rd NW and 184 St NW intersection</t>
+  </si>
+  <si>
+    <t>Was alone, simply walking around. However bystanders were close by, and the coyote was approaching too close.</t>
+  </si>
+  <si>
+    <t>Groat Road between the 102nd St Bridge and Stony Plain Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were at least two or three crossing. They leapt the centre divider. I think going east. </t>
+  </si>
+  <si>
+    <t>A healthy-looking larger coyote was sauntering along the trail above Mill Creek.</t>
+  </si>
+  <si>
+    <t>24/09/2021</t>
+  </si>
+  <si>
+    <t>103 Ave and 121 Street</t>
+  </si>
+  <si>
+    <t>One coyote running north on 121 Street.</t>
+  </si>
+  <si>
+    <t>25/09/2021</t>
+  </si>
+  <si>
+    <t>Rainbow valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote was hanging around and getting closer and was unafraid of our family (two adults and toddler). We were in front of the first parking lot on yhe grass next to the trail at southeast end of park area. </t>
+  </si>
+  <si>
+    <t>27/09/2021</t>
+  </si>
+  <si>
+    <t>Backyard: 14039 136 street NW, Edmonton, Alberta T6V 1W8</t>
+  </si>
+  <si>
+    <t>Apologies, the map will not work with my computer, but hopefully the address is sufficient. _x000D_
+_x000D_
+I saw a lone coyote in my backyard this morning! It appeared to be young. It was incredibly energetic and was jumping around from one of my gardens to the other. It could climb onto the gate for my garden and even onto the fence. It spent about 2-3 minutes in my yard looking around in my gardens. My garden currently has a vole problem and therefore has been attracting a lot of neighbourhood cats, but it seemed like the coyote was also looking for something in there. Unfortunately, I was unable to take a picture since I was absolutely unprepared and unexpecting a coyote in my backyard, and by the time I found my phone, it decided to leave. _x000D_
+_x000D_
+This is the first time I have seen a coyote in my backyard in 15 years. Last we ever saw a coyote was when this area was in the development process and we had no fences. However, two weeks ago, I found some scat in my backyard that resembled dog poop. At the time, I assumed it was a dog (even though we have never had a dog wander into our backyard), but after this sighting, I suspect it was probably a coyote. _x000D_
+_x000D_
+I will try to wake up earlier in the morning this week and keep an eye on my backyard. If it returns, I will be sure to take a picture for you!</t>
+  </si>
+  <si>
+    <t>26/09/2021</t>
+  </si>
+  <si>
+    <t>102 Avenue and Connaught Drive</t>
+  </si>
+  <si>
+    <t>The coyote crossed North over 102 Avenue, entered our yard and then went through a hedge into our neighbours yard.</t>
+  </si>
+  <si>
+    <t>12320 48 street NW (50street + Yellowhead)</t>
+  </si>
+  <si>
+    <t>There are multiple coyotes in our neighborhood now that the back tree line near the yellowhead is being cleared to develop a house has been developed. Coyotes are coming and sleeping on lawns, eating apples from under trees and walking near people. (One came within 3 feet of my room mate and walked passed him to get behind the house._x000D_
+_x000D_
+They are now starting to sleep on the neighbors lawns across the street and as odd as this may sound stray animals are crying at people&amp;#039;s doors I believe because they are scared and being prayed upon.</t>
+  </si>
+  <si>
+    <t>Levasseur and Sir Winston Churchill</t>
+  </si>
+  <si>
+    <t>On levasseur we have run into a coyote about a year ago.  I was walking my two small dogs heading east-bound on Levasseur.  I saw a coyote in the green space to the north of the sidewalk.  We quickly crossed the street and made haste to get back home.  The coyote continued west-bound.  Thankfully she/he proceeded father south, away from us.</t>
+  </si>
+  <si>
+    <t>29/09/2021</t>
+  </si>
+  <si>
+    <t>155 St and 93A Ave NW</t>
+  </si>
+  <si>
+    <t>Saw those three coyotes on my security video. They were passing by and sniffing stuff.</t>
+  </si>
+  <si>
+    <t>Hawrelak park, near the entrance to the park</t>
+  </si>
+  <si>
+    <t>2 large coyotes, crossing from the side closest to the golf course towards the center of the park. We were in a vehicle and there were no other people around in the immediate vicinity</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t>116 St and Saskatchewan Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was walking my dog on the sidewalk on the south side of Saskatchewan Drive when a coyote came onto the pathway on the north side of the road. It slowed down, observing us, and only continued on its way after I yelled at it and a car drove by. It stayed on the path for a couple minutes before heading back down into the river valley. </t>
+  </si>
+  <si>
+    <t>38 Avenue &amp;amp; 91 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthy animal. I&amp;#039;ve seen several times today along the off leash area along 91 Street.  We are used to seeing them at dusk &amp;amp; dawn but this particular animal is being seen a lot in this area.  </t>
+  </si>
+  <si>
+    <t>62nd Avenue NW and 132 St NW</t>
+  </si>
+  <si>
+    <t>3 coyotes surrounded my daughter and our dog on the access path along the northwest corner of the West 240 portion of the University Farm. The dog is the height of a Great Dane and weighs 180 pounds (Anatolian Shepherd Dog). The coyotes got within 5 metres. My daughter yelled and threw a rock, and the coyotes backed off a bit, but did not leave. My daughter backed away from the coyotes towards the houses, keeping an eye on the coyotes. One of the coyotes followed my daughter along the path, but at a distance, until she was nearly to the farm fence. She then saw a group of people, and the coyotes left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street /8wA Avenue143 </t>
+  </si>
+  <si>
+    <t>143 street 92A Avenue</t>
+  </si>
+  <si>
+    <t>Coyote was in our neighbours yard backing onto McKenzie Ravine. Coyote was alone and ran off when my flashlight shone into his eyes.</t>
+  </si>
+  <si>
+    <t>108 st 108 ave</t>
+  </si>
+  <si>
+    <t>Eating a rabbit_x000D_
+I live next to a school and day care</t>
+  </si>
+  <si>
+    <t>152 Avenue &amp;amp; 48 Street</t>
+  </si>
+  <si>
+    <t>First saw it in the field just south of my house.  Picked up my small dog as it came towards us and headed home. It followed about 20-30 metres behind then continued east down 152 Ave once  we got to our yard. It was alone and I felt its interest was in my puppy. It scared me that it was bold enough to come onto a residential street.</t>
+  </si>
+  <si>
+    <t>Coyote back.  It looks to be patrolling the area.  This is an off-leash area on the east side of 91st street.</t>
+  </si>
+  <si>
+    <t>131st and Stony Plain</t>
+  </si>
+  <si>
+    <t>Running south on 131 St NW toward Stony Plain. Stopped to look at me from street as I stood on my front porch, then kept running. I believe only one. Appeared healthy. Very busy time of day lots of traffic and construction.</t>
+  </si>
+  <si>
+    <t>98a ave 78 st</t>
+  </si>
+  <si>
+    <t>in the park green area in front of my moms house  bottom between 98a ave and 98 ave. it started towards me and my dog i started yelling and waving my arms and it stopped and proceded east,i went back into house asap. 7804 98a ave,i was wakling my dog,many beople in this area walk with dogs and children</t>
+  </si>
+  <si>
+    <t>51 avenue 104 street</t>
+  </si>
+  <si>
+    <t>I was driving east on 51 avenue  and it was 2:10 a.m. the cyote was just running slowly on the &amp;quot; cement island&amp;quot;  that seperates the turning lanes just before the main intersection,it was on the north lanes facing eastward he seemed relaxed peacful just out for a run enjoying no traffic in such a normally very heavy rtraffic road he was the size of a small border collie dog but i could tell it was a cyote by  the way it runs it kind of bounces up and down with a more&amp;quot;wild&amp;quot; look to the way it moves plus i see them often in the fulton place area where i live iv reported from there also sightings on a couple occasions it was alone I always feel nervous when i see one because thy are a wild animal still/unpredictable so i just briefly enjoy the somewhat rare sighting of a wild animal in the middle of a big city withts its guard let down its beautiful to see or have a  sighting from a far in my car and continue on driving.Its a good thing there wasnt any traffic mind you he wouldnt have come that close into higher populatuion and traffic if it had been busier or earlier.</t>
+  </si>
+  <si>
+    <t>Whitemud Creek south of freeway</t>
+  </si>
+  <si>
+    <t>Deer carcass next to creek seemed to be attracting a number of coyote to the area. We spotted four or five moving through the bush in the area, including crossing the trail. Considerable amount of barking and yipping coming from different directions, mostly west of the creek. _x000D_
+Your map is not visible.</t>
+  </si>
+  <si>
+    <t>Southeast corner of University Farm West 240</t>
+  </si>
+  <si>
+    <t>As we were walking our dog, a lone coyote entered the University Farm West 240 from the extreme SE corner, just west of the Northern Forestry Centre. We shouted and waved our arms from perhaps 25m but the coyote seemed relatively unconcerned. Then the two of us and our leashed dog ran towards it, shouting and throwing soil clumps, and it started running west along the south edge of the farm.</t>
+  </si>
+  <si>
+    <t>between BioSci Loading Dock &amp;amp; Faculty Club - University of Alberta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 coyotes. Not scared. Moving from river valley into campus. Observed from Car. Concerns are that people would encounter them alone and that they may become aggressive. </t>
+  </si>
+  <si>
+    <t>116st and 166ave</t>
+  </si>
+  <si>
+    <t>pack of 3 coyotes on 166ave and in front yards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 Ave &amp;amp; 56 street </t>
+  </si>
+  <si>
+    <t>Coyote was walking southbound down 56 street, looking around._x000D_
+_x000D_
+Concerns - lots of small children and pets on the neighborhood. Late at night, so less chance for an encounter, but concerning none the less.</t>
+  </si>
+  <si>
+    <t>87 Avenue and 111 Street</t>
+  </si>
+  <si>
+    <t>Coyote running across the street with something white in its mouth running behind student residences just before 1 a.m.</t>
+  </si>
+  <si>
+    <t>125 Street 116 Avenue</t>
+  </si>
+  <si>
+    <t>Sitting in the field in the middle of the day. Not cared of any people going by. May be injured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121st and 128ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They showed no threat, in fact crossed the road but there was 6/7 of them. _x000D_
+I saw them walking down the middle of the road at about 1:30 am. _x000D_
+They looked like they were headed to the train tracks </t>
+  </si>
+  <si>
+    <t>JACKIE PARKER PARK AT 4540-50 STREET NW</t>
+  </si>
+  <si>
+    <t>CITIZEN WITNESSED AT LEAST 10 COYOTES IN JACKIE PARKER PARK SOUTH OF THE PLAYGROUND.THE CITIZEN IS IN THE PARKING LOT AND SEEN THE COYOTES.</t>
+  </si>
+  <si>
+    <t>11625 135 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Mark Junior High Catholic School field. </t>
+  </si>
+  <si>
+    <t>Lansdowne Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote was wandering in the park near the playground. I scared it away back towards the ravine. </t>
+  </si>
+  <si>
+    <t>124 street and lansdowne drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coyote was across the street in the park when I was walking my dog. It moved parallel to us and I was able to scare it further into the park. I put the dog inside the house and went to the park and was able to scare the coyote towards the ravine. </t>
+  </si>
+  <si>
+    <t>Lansdowne Drive &amp;amp; 124 Street</t>
+  </si>
+  <si>
+    <t>Coyote in the park. I scared it back towards the ravine.</t>
+  </si>
+  <si>
+    <t>Lansdowne drive &amp;amp;49 avenue nw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was walking my dog along the ravine/Lansdowne Drive around 4pm. 3 coyotes came running out of the trees about 50 feet in front of us. Luckily, they turned away from our direction and I was able to pick up my dog and walk in the opposite direction to avoid them. Sightings have been MUCH more frequent in the past few days. </t>
+  </si>
+  <si>
+    <t>137 Ave NW and 135 Street NW</t>
+  </si>
+  <si>
+    <t>I was walking my 2 dogs (approx 80lb each) on leash and a single, healthy-looking coyote walked towards us on the path with it&amp;#039;s ears down, like it was stalking us. I then stood in place, raised my hands, shouted and stomped my feet. The coyote stopped approximately 10 metres away and ran into the trees. I was able to continue on my path but it then started to follow us for another 50 metres. I stopped intermittantly to yell and stomp my feet, before it lost interest and walked off in a different direction. I felt that the coyote was not afraid of me. Throughout the encounter, my dogs did not bark but watched cautiously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124 street 47 ave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He walked towards us as I walked my golden retriever in the neighborhood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 ave and lansdowne drive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote walk around us on the green in front of our house </t>
+  </si>
+  <si>
+    <t>13/10/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62 Ave </t>
+  </si>
+  <si>
+    <t>Haddow Drive NW &amp;amp; Hunter&amp;#039;s Green NW</t>
+  </si>
+  <si>
+    <t>A lone coyote was walking west along the sidewalk. Not wanting an encounter, I pulled my dog out of the area.</t>
+  </si>
+  <si>
+    <t>Alley perpendicular to the alley parallel to Saskatchewan Dr at 83 Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saw two coyotes walking through the alley toward the river valley. One stopped and looked at me and the other walked behind with his head down. </t>
+  </si>
+  <si>
+    <t>100 st and Saskatchewan drive</t>
+  </si>
+  <si>
+    <t>7:00am, near construction at Fred A Morie park</t>
+  </si>
+  <si>
+    <t>77 Ave and 105 St</t>
+  </si>
+  <si>
+    <t>Two grown coyotes, one running down the street and the other pausing occasionally and catching up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it ate my subway it was alone but fiece </t>
+  </si>
+  <si>
+    <t>IT WAS USING THE CROSSWALK</t>
+  </si>
+  <si>
+    <t>14/10/2021</t>
+  </si>
+  <si>
+    <t>Was sitting in car, it walked right beside the car, and went for a nap in the field. I know many children go into the field for recess and many staff from Glenrose and CCN walk in that area at lunch break.</t>
+  </si>
+  <si>
+    <t>15/10/2021</t>
+  </si>
+  <si>
+    <t>128 ave 104 st nw</t>
+  </si>
+  <si>
+    <t>Young children were playing in the front yard 2 doors down. I chased the coyote away by yelling and waving my arms.It didn&amp;#039;t seem too afraid of me.</t>
+  </si>
+  <si>
+    <t>51 Avenue &amp;amp; 113 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is hanging around a main road and school.  </t>
+  </si>
+  <si>
+    <t>Washburn dr and 173 st</t>
+  </si>
+  <si>
+    <t>Coyote on north side of pond sighted at 5:10pm</t>
+  </si>
+  <si>
+    <t>Tomlinson Common and turvey bend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote stood maybe 15 feet from myself, my dog, mother and my children  (2 and 5 yrs old).  It stared us down for a few full seconds and it took my mother and i yelling and her waving a stick at it before it turned and ran away.  </t>
+  </si>
+  <si>
+    <t>187st 64ave</t>
+  </si>
+  <si>
+    <t>2 coyotes just watching me and my dog about 15&amp;rsquo; away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terwillegar pond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I&amp;rsquo;ve had a close encounter with this coyote on 13th and 14th October at around 9:00 am. It stood v close to me and stared at me for a good 5-7 mins before going the other way </t>
+  </si>
+  <si>
+    <t>Thibault way and Tomlinson common</t>
+  </si>
+  <si>
+    <t>Big coyote stood its ground 20ft away as I walk my dog</t>
+  </si>
+  <si>
+    <t>156 st</t>
+  </si>
+  <si>
+    <t>Coyote with a dead cat in its mouth</t>
+  </si>
+  <si>
+    <t>16/10/2021</t>
+  </si>
+  <si>
+    <t>Rabbit Hill Rd and Ellerslie Rd SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My dog (suddenly staring intently) clued me to look up and see a coyote running fast in the distance, from one group of trees to another. I stood and watched it with my flashlight. When it disappeared into the second group of trees, I saw 6 more pairs of eyes there in the trees  (like 2 tiny little lights, moderately spaced out. When I turned my flashlight off they would instantly disappear (completely dark trees), and reappear when I turned it back on. It was obvious they were watching me and my dog. </t>
+  </si>
+  <si>
+    <t>129 ave and 112 st</t>
+  </si>
+  <si>
+    <t>I was in the Lauderdale/Grand Trunk dog park and saw something moving. I wasn&amp;#039;t sure what it was at first. I was staring at a bush for 10 minutes before it moved again. It was moving closer and trying to hide it&amp;#039;s movements. I recorded video and took pictures. It ran away across the street when I started moving closer and yelling at it. It was alone as far as I could tell. Full size coyote, white and tan fur with the distinct bushy tale. The coyote can be seen clearly on the video crossing the street under a street light._x000D_
+_x000D_
+10/17/2021 I was at the park again tonight and thought I saw something moving along the fence on 127st so I headed back the opposite way. Then the howling started.  I grabbed my dog and went to my car immediately. I was able to get clear audio recording of coyotes howling and yipping near 127st. _x000D_
+_x000D_
+I&amp;#039;ve been going to this park for over 5 years and I&amp;#039;ve never seen or heard any coyotes before October 6 2021 at this park. In the past 4 months I&amp;#039;ve had 2 other daytime sightings by my house on 102st and 130 avenue. Both times were full size adult coyotes walking right down the street and sidewalk in the afternoon.</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>108a Street. 32a Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single coyote walking down street then crossing over to sidewalk. </t>
+  </si>
+  <si>
+    <t>Rutherford Rd SW/James Mowatt Trail SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd run in in 3 nights. First night up to 6 of them. First night they stayed about 30 meters despite making noises and using the strobe on my flash light. Second night came in about 15 feet scared back off some with flash light however stood their ground on my advances after they were about 20-30 meters. When leaving they shadowed my exit while keeping about a 30 m distance. </t>
+  </si>
+  <si>
+    <t>18/10/2021</t>
+  </si>
+  <si>
+    <t>117 Avenue and 88 Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote observed carrying an animal in its mouth, possibly a cat. Entered off 88 street and proceeded to backyard where it left a 4 minutes later without anything in its mouth. </t>
+  </si>
+  <si>
+    <t>19/10/2021</t>
+  </si>
+  <si>
+    <t>Coyote was observed. In the green space of the off-ramp to Anthony Henday</t>
+  </si>
+  <si>
+    <t>117 Avenue and 88 street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coyote observed on security footage leaving yard. </t>
+  </si>
+  <si>
+    <t>At the Twin Brooks Nature Park - along the path close to creek</t>
+  </si>
+  <si>
+    <t>The coyote was standing on a small hill in the park, and was barking. I thought it was a dog in distress, but as my dogs and I turned at a bend, I realised it was a coyote.  It was only 25-30 metres from us and was not worried at all of our presence .  It actually kept on barking at us, and I began to wonder if it was calling out to other coyotes? I took a short amount of video and then retreated down the path.  It continued barking the entire time until it was out of our sight.</t>
+  </si>
+  <si>
+    <t>107th street and 129th ave</t>
+  </si>
+  <si>
+    <t>Coyote was near bus stop and walking towards Lauderdale school park</t>
+  </si>
+  <si>
+    <t>20/10/2021</t>
+  </si>
+  <si>
+    <t>10738 33A Avenue NW</t>
+  </si>
+  <si>
+    <t>We have had problems with Coyotes in our area over the last few months. Last week a coyote followed me for awhile while I was walking our midsized dog. The City of Edmonton have been notified a few times. This morning we witness a coyote attack a large hair and kill it on our front lawn. We have a video that I could send you.</t>
+  </si>
+  <si>
+    <t>126 51A Avenue</t>
+  </si>
+  <si>
+    <t>Went into the alley</t>
+  </si>
+  <si>
+    <t>21/10/2021</t>
+  </si>
+  <si>
+    <t>98ave and Lewis Greens drive</t>
+  </si>
+  <si>
+    <t>Single Coyote spotted crossing the street in a residential area</t>
+  </si>
+  <si>
+    <t>111 street and 76 Ave NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just one coyote running across the road. He looked plump, so might be getting food from somewhere in the neighbourhood. </t>
+  </si>
+  <si>
+    <t>115 St 51Ave</t>
+  </si>
+  <si>
+    <t>113 Ave 103 St</t>
+  </si>
+  <si>
+    <t>Coyote very unafraid of people, dogs and children in the park. I have seen this coyote in the park every day this week</t>
+  </si>
+  <si>
+    <t>113 Ave NW, 104 St</t>
+  </si>
+  <si>
+    <t>My coworker saw it in a front yard walking north, she was on other side of street walking south.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,13 +2098,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -892,7 +2255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -940,16 +2303,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -970,10 +2382,231 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -995,7 +2628,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1008,6 +2641,27 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1203,16 +2857,60 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color theme="0"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1229,20 +2927,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5406C55F-7DC4-4B3B-AEB2-49A5532E1C3A}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5406C55F-7DC4-4B3B-AEB2-49A5532E1C3A}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:I101" xr:uid="{5406C55F-7DC4-4B3B-AEB2-49A5532E1C3A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15C786D2-BF6A-450B-AB1B-3DC49B339FC8}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{112E3D22-67FF-4068-89A8-A33818EA73EF}" name="Date" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{484B74C7-9346-4CB1-BF39-903882690ED9}" name="Lat" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B7B54717-8108-49F5-907C-D0A14286A3E0}" name="Long" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E66AB7BB-381B-4868-8E03-2E29CFDDFA40}" name="Time" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{08A3DA98-5E1E-4C7B-9B86-1B9A1B6AA906}" name="Date2" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{268E8180-4F7C-4605-A57A-04FA6A17C7BA}" name="Type" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{AB5BA9DF-464E-4921-88D5-D0C3EF0F75AC}" name="Location" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E917D039-FD32-4CB8-A26C-B23DC83188E7}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{15C786D2-BF6A-450B-AB1B-3DC49B339FC8}" name="ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{112E3D22-67FF-4068-89A8-A33818EA73EF}" name="Date" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{484B74C7-9346-4CB1-BF39-903882690ED9}" name="Lat" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{B7B54717-8108-49F5-907C-D0A14286A3E0}" name="Long" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E66AB7BB-381B-4868-8E03-2E29CFDDFA40}" name="Time" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{08A3DA98-5E1E-4C7B-9B86-1B9A1B6AA906}" name="Date2" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{268E8180-4F7C-4605-A57A-04FA6A17C7BA}" name="Type" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{AB5BA9DF-464E-4921-88D5-D0C3EF0F75AC}" name="Location" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{E917D039-FD32-4CB8-A26C-B23DC83188E7}" name="Comments" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3167AC0F-B44D-4581-9DD3-A4C8847AF111}" name="Table2" displayName="Table2" ref="A1:I101" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I101" xr:uid="{3167AC0F-B44D-4581-9DD3-A4C8847AF111}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C7ED3B01-17E8-4569-9C23-BFD4E0025D19}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D2C7A107-578A-4DE7-9F17-B57983327BA2}" name="Date" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7C9F7A71-9102-4E4E-BAC6-849134AA1B62}" name="Lat" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6D3BF6DE-C4AC-4E46-9C18-1DE20B93CEC2}" name="Long" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{94ADCDB4-A30C-4674-980E-35F321106013}" name="Time" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{51F287D0-B77F-4EE9-A0D6-4D8592A54818}" name="Date2" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{614EA0E9-4483-4ED3-9BA9-04A55E575093}" name="Type" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{A819F382-2314-4BF7-9D36-85C11D2BF7BC}" name="Location" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{473EE259-1F05-41A5-89FD-62CC80FB85D5}" name="Comments" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1545,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DC8ADB-0416-40B3-B473-FADBC6160743}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4298,4 +6014,5210 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985FDE3C-F835-4DDC-8BB8-69D0611BCDCD}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="303" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>10569</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44356.724999999999</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F2" s="9">
+        <v>44445</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>10570</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44356.749305555553</v>
+      </c>
+      <c r="C3" s="7">
+        <v>53.490570320000003</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-113.6242385</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F3" s="9">
+        <v>44445</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>10571</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44357.518055555556</v>
+      </c>
+      <c r="C4" s="7">
+        <v>53.441238009999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-113.5282368</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4" s="9">
+        <v>44475</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>10572</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44357.681250000001</v>
+      </c>
+      <c r="C5" s="7">
+        <v>53.424798209999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-113.52424569999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="9">
+        <v>44445</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>10573</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44358.493750000001</v>
+      </c>
+      <c r="C6" s="7">
+        <v>53.422064730000002</v>
+      </c>
+      <c r="D6" s="7">
+        <v>-113.5343469</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F6" s="9">
+        <v>44383</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>10574</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44358.50277777778</v>
+      </c>
+      <c r="C7" s="7">
+        <v>53.457881159999999</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-113.5216064</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F7" s="9">
+        <v>44506</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>10575</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44358.508333333331</v>
+      </c>
+      <c r="C8" s="7">
+        <v>53.457277619999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-113.52090099999999</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F8" s="9">
+        <v>44414</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>10576</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44359.508333333331</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9">
+        <v>44536</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>10577</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44359.839583333334</v>
+      </c>
+      <c r="C10" s="7">
+        <v>53.41680427</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-113.519053</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="9">
+        <v>44536</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10578</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44360.660416666666</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10579</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44360.854166666664</v>
+      </c>
+      <c r="C12" s="7">
+        <v>53.480880339999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-113.5539928</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>10580</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44361.466666666667</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>10581</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44361.473611111112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>53.494680879999997</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-113.5802824</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="F14" s="9">
+        <v>44506</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>10582</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44361.788194444445</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>10583</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44361.81527777778</v>
+      </c>
+      <c r="C16" s="7">
+        <v>53.425487109999999</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-113.5203243</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>10584</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44363.03402777778</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>10585</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44363.952777777777</v>
+      </c>
+      <c r="C18" s="7">
+        <v>53.447225260000003</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-113.58963799999999</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>10586</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44364.611805555556</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>10587</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44364.613888888889</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F20" s="9">
+        <v>44322</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>10588</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44364.623611111114</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>10589</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44364.630555555559</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>10590</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44364.644444444442</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>10591</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44364.645833333336</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>10592</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44364.748611111114</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>10593</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44365.470138888886</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>10594</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44366.0625</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>10595</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44366.564583333333</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>10596</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44366.636805555558</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>10597</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44366.79791666667</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>10598</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44366.804166666669</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="9">
+        <v>44142</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>10599</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44366.984027777777</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>10600</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44367.669444444444</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>10601</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44368.013888888891</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>10602</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44368.020833333336</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F35" s="9">
+        <v>44506</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>10603</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44368.6</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>10604</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44369.683333333334</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>10605</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44370.297222222223</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>10608</v>
+      </c>
+      <c r="B39" s="6">
+        <v>44372.6</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>10609</v>
+      </c>
+      <c r="B40" s="6">
+        <v>44373.336805555555</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>10610</v>
+      </c>
+      <c r="B41" s="6">
+        <v>44373.374305555553</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>10611</v>
+      </c>
+      <c r="B42" s="6">
+        <v>44373.469444444447</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>10612</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44374.49722222222</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>10613</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44374.909722222219</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>10614</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44374.999305555553</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>10615</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44375.481944444444</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>10616</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44375.497916666667</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>10618</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44377.084027777775</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>10619</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44377.244444444441</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>10620</v>
+      </c>
+      <c r="B50" s="6">
+        <v>44377.24722222222</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>10621</v>
+      </c>
+      <c r="B51" s="6">
+        <v>44377.979166666664</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>10622</v>
+      </c>
+      <c r="B52" s="6">
+        <v>44380.886805555558</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="9">
+        <v>44262</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>10623</v>
+      </c>
+      <c r="B53" s="6">
+        <v>44381.494444444441</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="9">
+        <v>44293</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>10624</v>
+      </c>
+      <c r="B54" s="6">
+        <v>44381.636111111111</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F54" s="9">
+        <v>44262</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>10625</v>
+      </c>
+      <c r="B55" s="6">
+        <v>44384.654166666667</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F55" s="9">
+        <v>44293</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>10626</v>
+      </c>
+      <c r="B56" s="6">
+        <v>44384.67083333333</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F56" s="9">
+        <v>44384</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>10627</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44386.097916666666</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F57" s="9">
+        <v>44323</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>10628</v>
+      </c>
+      <c r="B58" s="6">
+        <v>44386.976388888892</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="F58" s="9">
+        <v>44446</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>10629</v>
+      </c>
+      <c r="B59" s="6">
+        <v>44388.381249999999</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F59" s="9">
+        <v>44507</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>10630</v>
+      </c>
+      <c r="B60" s="6">
+        <v>44389.040277777778</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F60" s="9">
+        <v>44507</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>10631</v>
+      </c>
+      <c r="B61" s="6">
+        <v>44389.409722222219</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F61" s="9">
+        <v>44537</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>10632</v>
+      </c>
+      <c r="B62" s="6">
+        <v>44389.515277777777</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F62" s="9">
+        <v>44537</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>10633</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44390.503472222219</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>10634</v>
+      </c>
+      <c r="B64" s="6">
+        <v>44390.520833333336</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>10635</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44391.335416666669</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>10636</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44391.87222222222</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="9">
+        <v>44537</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>10637</v>
+      </c>
+      <c r="B67" s="6">
+        <v>44391.873611111114</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>10638</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44391.875694444447</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>10639</v>
+      </c>
+      <c r="B69" s="6">
+        <v>44392.576388888891</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>10640</v>
+      </c>
+      <c r="B70" s="6">
+        <v>44393.32916666667</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>10641</v>
+      </c>
+      <c r="B71" s="6">
+        <v>44394.118055555555</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>10642</v>
+      </c>
+      <c r="B72" s="6">
+        <v>44396.421527777777</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>10643</v>
+      </c>
+      <c r="B73" s="6">
+        <v>44396.519444444442</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>10644</v>
+      </c>
+      <c r="B74" s="6">
+        <v>44396.548611111109</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>10645</v>
+      </c>
+      <c r="B75" s="6">
+        <v>44396.772222222222</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>10646</v>
+      </c>
+      <c r="B76" s="6">
+        <v>44398.537499999999</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>10647</v>
+      </c>
+      <c r="B77" s="6">
+        <v>44398.538194444445</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>10648</v>
+      </c>
+      <c r="B78" s="6">
+        <v>44398.807638888888</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>10649</v>
+      </c>
+      <c r="B79" s="6">
+        <v>44398.956250000003</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>10650</v>
+      </c>
+      <c r="B80" s="6">
+        <v>44399.415972222225</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>10651</v>
+      </c>
+      <c r="B81" s="6">
+        <v>44399.427083333336</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>10652</v>
+      </c>
+      <c r="B82" s="6">
+        <v>44400.44027777778</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>10653</v>
+      </c>
+      <c r="B83" s="6">
+        <v>44400.511111111111</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>10654</v>
+      </c>
+      <c r="B84" s="6">
+        <v>44400.665277777778</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>10655</v>
+      </c>
+      <c r="B85" s="6">
+        <v>44400.667361111111</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>10656</v>
+      </c>
+      <c r="B86" s="6">
+        <v>44400.94027777778</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>10657</v>
+      </c>
+      <c r="B87" s="6">
+        <v>44401.543749999997</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>10658</v>
+      </c>
+      <c r="B88" s="6">
+        <v>44402.738194444442</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>10659</v>
+      </c>
+      <c r="B89" s="6">
+        <v>44403.414583333331</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>10660</v>
+      </c>
+      <c r="B90" s="6">
+        <v>44403.48541666667</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>10661</v>
+      </c>
+      <c r="B91" s="6">
+        <v>44403.55972222222</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>10662</v>
+      </c>
+      <c r="B92" s="6">
+        <v>44403.786805555559</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>10663</v>
+      </c>
+      <c r="B93" s="6">
+        <v>44403.788888888892</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>10664</v>
+      </c>
+      <c r="B94" s="6">
+        <v>44404.486111111109</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>10665</v>
+      </c>
+      <c r="B95" s="6">
+        <v>44404.973611111112</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>10666</v>
+      </c>
+      <c r="B96" s="6">
+        <v>44405.018055555556</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>10667</v>
+      </c>
+      <c r="B97" s="6">
+        <v>44405.8</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>10668</v>
+      </c>
+      <c r="B98" s="6">
+        <v>44406.78125</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>10669</v>
+      </c>
+      <c r="B99" s="6">
+        <v>44406.990277777775</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>10670</v>
+      </c>
+      <c r="B100" s="6">
+        <v>44407.969444444447</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>10671</v>
+      </c>
+      <c r="B101" s="12">
+        <v>44408.493055555555</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="14">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED2C7F5-E0E3-4EF5-850D-C5000359815B}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="51.88671875" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>10727</v>
+      </c>
+      <c r="B2" s="23">
+        <v>44447.056250000001</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F2" s="26">
+        <v>44386</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>10728</v>
+      </c>
+      <c r="B3" s="29">
+        <v>44447.633333333331</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="31">
+        <v>44417</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>10730</v>
+      </c>
+      <c r="B4" s="23">
+        <v>44448.729861111111</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="26">
+        <v>44417</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>10731</v>
+      </c>
+      <c r="B5" s="29">
+        <v>44448.951388888891</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="31">
+        <v>44448</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>10732</v>
+      </c>
+      <c r="B6" s="23">
+        <v>44448.981249999997</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26">
+        <v>44448</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>10733</v>
+      </c>
+      <c r="B7" s="29">
+        <v>44449.040972222225</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="33">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F7" s="31">
+        <v>44448</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>10734</v>
+      </c>
+      <c r="B8" s="23">
+        <v>44450.01458333333</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F8" s="26">
+        <v>44509</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>10735</v>
+      </c>
+      <c r="B9" s="29">
+        <v>44450.693749999999</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="33">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F9" s="31">
+        <v>44478</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>10736</v>
+      </c>
+      <c r="B10" s="23">
+        <v>44451.0625</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="F10" s="26">
+        <v>44539</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>10737</v>
+      </c>
+      <c r="B11" s="29">
+        <v>44451.681944444441</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="33">
+        <v>0.875</v>
+      </c>
+      <c r="F11" s="31">
+        <v>44509</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>10738</v>
+      </c>
+      <c r="B12" s="23">
+        <v>44451.824999999997</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="26">
+        <v>44539</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
+        <v>10739</v>
+      </c>
+      <c r="B13" s="29">
+        <v>44452.202777777777</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>10740</v>
+      </c>
+      <c r="B14" s="23">
+        <v>44454.306250000001</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>10741</v>
+      </c>
+      <c r="B15" s="29">
+        <v>44455.088888888888</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="33">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>10742</v>
+      </c>
+      <c r="B16" s="23">
+        <v>44456.195833333331</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>10743</v>
+      </c>
+      <c r="B17" s="29">
+        <v>44456.902083333334</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="33">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>10745</v>
+      </c>
+      <c r="B18" s="23">
+        <v>44459.709027777775</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="360" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>10746</v>
+      </c>
+      <c r="B19" s="29">
+        <v>44459.934027777781</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="33">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>10747</v>
+      </c>
+      <c r="B20" s="23">
+        <v>44460.105555555558</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>10748</v>
+      </c>
+      <c r="B21" s="29">
+        <v>44460.143055555556</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>10749</v>
+      </c>
+      <c r="B22" s="23">
+        <v>44460.533333333333</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>10750</v>
+      </c>
+      <c r="B23" s="29">
+        <v>44460.595833333333</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>10751</v>
+      </c>
+      <c r="B24" s="23">
+        <v>44460.803472222222</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="28">
+        <v>10753</v>
+      </c>
+      <c r="B25" s="29">
+        <v>44460.915277777778</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="33">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>10754</v>
+      </c>
+      <c r="B26" s="23">
+        <v>44460.95208333333</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
+        <v>10755</v>
+      </c>
+      <c r="B27" s="29">
+        <v>44461.441666666666</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>10756</v>
+      </c>
+      <c r="B28" s="23">
+        <v>44461.443749999999</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
+        <v>10757</v>
+      </c>
+      <c r="B29" s="29">
+        <v>44461.9</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>10758</v>
+      </c>
+      <c r="B30" s="23">
+        <v>44462.444444444445</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>10759</v>
+      </c>
+      <c r="B31" s="29">
+        <v>44462.570138888892</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>10760</v>
+      </c>
+      <c r="B32" s="23">
+        <v>44462.94027777778</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="28">
+        <v>10761</v>
+      </c>
+      <c r="B33" s="29">
+        <v>44463.138194444444</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
+        <v>10762</v>
+      </c>
+      <c r="B34" s="23">
+        <v>44464.931944444441</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="28">
+        <v>10763</v>
+      </c>
+      <c r="B35" s="29">
+        <v>44466.495833333334</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <v>10764</v>
+      </c>
+      <c r="B36" s="23">
+        <v>44466.54583333333</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="28">
+        <v>10765</v>
+      </c>
+      <c r="B37" s="29">
+        <v>44466.645833333336</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="22">
+        <v>10766</v>
+      </c>
+      <c r="B38" s="23">
+        <v>44467.041666666664</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="28">
+        <v>10767</v>
+      </c>
+      <c r="B39" s="29">
+        <v>44468.656944444447</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <v>10768</v>
+      </c>
+      <c r="B40" s="23">
+        <v>44473.011111111111</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="26">
+        <v>44265</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="28">
+        <v>10769</v>
+      </c>
+      <c r="B41" s="29">
+        <v>44473.01666666667</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="22">
+        <v>10770</v>
+      </c>
+      <c r="B42" s="23">
+        <v>44473.780555555553</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F42" s="26">
+        <v>44296</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="28">
+        <v>10771</v>
+      </c>
+      <c r="B43" s="29">
+        <v>44473.96597222222</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="33">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F43" s="31">
+        <v>44296</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="22">
+        <v>10772</v>
+      </c>
+      <c r="B44" s="23">
+        <v>44474.017361111109</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F44" s="26">
+        <v>44296</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="28">
+        <v>10773</v>
+      </c>
+      <c r="B45" s="29">
+        <v>44474.018750000003</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F45" s="31">
+        <v>44296</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="22">
+        <v>10774</v>
+      </c>
+      <c r="B46" s="23">
+        <v>44475.436111111114</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="26">
+        <v>44357</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="28">
+        <v>10775</v>
+      </c>
+      <c r="B47" s="29">
+        <v>44475.459722222222</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="F47" s="31">
+        <v>44326</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="22">
+        <v>10776</v>
+      </c>
+      <c r="B48" s="23">
+        <v>44475.629861111112</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F48" s="26">
+        <v>44357</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="28">
+        <v>10777</v>
+      </c>
+      <c r="B49" s="29">
+        <v>44475.737500000003</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="33">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F49" s="31">
+        <v>44357</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="22">
+        <v>10778</v>
+      </c>
+      <c r="B50" s="23">
+        <v>44475.938194444447</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F50" s="26">
+        <v>44357</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A51" s="28">
+        <v>10779</v>
+      </c>
+      <c r="B51" s="29">
+        <v>44476.219444444447</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F51" s="31">
+        <v>44265</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="22">
+        <v>10780</v>
+      </c>
+      <c r="B52" s="23">
+        <v>44476.572916666664</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F52" s="26">
+        <v>44387</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="28">
+        <v>10781</v>
+      </c>
+      <c r="B53" s="29">
+        <v>44477.668749999997</v>
+      </c>
+      <c r="C53" s="30">
+        <v>53.490583090000001</v>
+      </c>
+      <c r="D53" s="30">
+        <v>-113.5445447</v>
+      </c>
+      <c r="E53" s="33">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F53" s="31">
+        <v>44418</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A54" s="22">
+        <v>10782</v>
+      </c>
+      <c r="B54" s="23">
+        <v>44477.692361111112</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F54" s="26">
+        <v>44357</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="28">
+        <v>10783</v>
+      </c>
+      <c r="B55" s="29">
+        <v>44477.856249999997</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="33">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F55" s="31">
+        <v>44387</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="22">
+        <v>10785</v>
+      </c>
+      <c r="B56" s="23">
+        <v>44477.99722222222</v>
+      </c>
+      <c r="C56" s="24">
+        <v>53.566364030000003</v>
+      </c>
+      <c r="D56" s="24">
+        <v>-113.42768890000001</v>
+      </c>
+      <c r="E56" s="25">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F56" s="26">
+        <v>44418</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="28">
+        <v>10786</v>
+      </c>
+      <c r="B57" s="29">
+        <v>44478.112500000003</v>
+      </c>
+      <c r="C57" s="30">
+        <v>53.522853699999999</v>
+      </c>
+      <c r="D57" s="30">
+        <v>-113.51638680000001</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31">
+        <v>44449</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="22">
+        <v>10787</v>
+      </c>
+      <c r="B58" s="23">
+        <v>44480.795138888891</v>
+      </c>
+      <c r="C58" s="24">
+        <v>53.566041560000002</v>
+      </c>
+      <c r="D58" s="24">
+        <v>-113.53825759999999</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F58" s="26">
+        <v>44510</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A59" s="28">
+        <v>10788</v>
+      </c>
+      <c r="B59" s="29">
+        <v>44480.962500000001</v>
+      </c>
+      <c r="C59" s="30">
+        <v>53.585980630000002</v>
+      </c>
+      <c r="D59" s="30">
+        <v>-113.5310693</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="31">
+        <v>44479</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="22">
+        <v>10789</v>
+      </c>
+      <c r="B60" s="23">
+        <v>44481.303472222222</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F60" s="26">
+        <v>44540</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="28">
+        <v>10790</v>
+      </c>
+      <c r="B61" s="29">
+        <v>44481.533333333333</v>
+      </c>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F61" s="31">
+        <v>44540</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="22">
+        <v>10791</v>
+      </c>
+      <c r="B62" s="23">
+        <v>44481.743055555555</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="26">
+        <v>44449</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="28">
+        <v>10792</v>
+      </c>
+      <c r="B63" s="29">
+        <v>44481.744444444441</v>
+      </c>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="31">
+        <v>44479</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="22">
+        <v>10793</v>
+      </c>
+      <c r="B64" s="23">
+        <v>44481.745138888888</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="26">
+        <v>44540</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="28">
+        <v>10794</v>
+      </c>
+      <c r="B65" s="29">
+        <v>44481.746527777781</v>
+      </c>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="31">
+        <v>44449</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="22">
+        <v>10795</v>
+      </c>
+      <c r="B66" s="23">
+        <v>44481.824305555558</v>
+      </c>
+      <c r="C66" s="24">
+        <v>53.599187469999997</v>
+      </c>
+      <c r="D66" s="24">
+        <v>-113.5522265</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="26">
+        <v>44510</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="28">
+        <v>10796</v>
+      </c>
+      <c r="B67" s="29">
+        <v>44481.910416666666</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="31">
+        <v>44540</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="22">
+        <v>10797</v>
+      </c>
+      <c r="B68" s="23">
+        <v>44481.912499999999</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="F68" s="26">
+        <v>44510</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="28">
+        <v>10799</v>
+      </c>
+      <c r="B69" s="29">
+        <v>44482.606944444444</v>
+      </c>
+      <c r="C69" s="30">
+        <v>53.497706110000003</v>
+      </c>
+      <c r="D69" s="30">
+        <v>-113.6391945</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="22">
+        <v>10800</v>
+      </c>
+      <c r="B70" s="23">
+        <v>44482.635416666664</v>
+      </c>
+      <c r="C70" s="24">
+        <v>53.457307319999998</v>
+      </c>
+      <c r="D70" s="24">
+        <v>-113.59768459999999</v>
+      </c>
+      <c r="E70" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="28">
+        <v>10801</v>
+      </c>
+      <c r="B71" s="29">
+        <v>44482.852083333331</v>
+      </c>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="33">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="22">
+        <v>10802</v>
+      </c>
+      <c r="B72" s="23">
+        <v>44482.961111111108</v>
+      </c>
+      <c r="C72" s="24">
+        <v>53.526211750000002</v>
+      </c>
+      <c r="D72" s="24">
+        <v>-113.48866889999999</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="26">
+        <v>44540</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="28">
+        <v>10803</v>
+      </c>
+      <c r="B73" s="29">
+        <v>44483.063888888886</v>
+      </c>
+      <c r="C73" s="30">
+        <v>53.513278769999999</v>
+      </c>
+      <c r="D73" s="30">
+        <v>-113.49990200000001</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="31">
+        <v>44540</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="22">
+        <v>10804</v>
+      </c>
+      <c r="B74" s="23">
+        <v>44483.558333333334</v>
+      </c>
+      <c r="C74" s="24">
+        <v>53.524898299999997</v>
+      </c>
+      <c r="D74" s="24">
+        <v>-113.5577626</v>
+      </c>
+      <c r="E74" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="24"/>
+      <c r="I74" s="27" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="28">
+        <v>10805</v>
+      </c>
+      <c r="B75" s="29">
+        <v>44483.559027777781</v>
+      </c>
+      <c r="C75" s="30">
+        <v>53.502747669999998</v>
+      </c>
+      <c r="D75" s="30">
+        <v>-113.6352677</v>
+      </c>
+      <c r="E75" s="33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F75" s="31">
+        <v>44449</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="30"/>
+      <c r="I75" s="32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="22">
+        <v>10806</v>
+      </c>
+      <c r="B76" s="23">
+        <v>44483.648611111108</v>
+      </c>
+      <c r="C76" s="24">
+        <v>53.566640509999999</v>
+      </c>
+      <c r="D76" s="24">
+        <v>-113.4978528</v>
+      </c>
+      <c r="E76" s="25">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="24"/>
+      <c r="I76" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="28">
+        <v>10807</v>
+      </c>
+      <c r="B77" s="29">
+        <v>44484.120833333334</v>
+      </c>
+      <c r="C77" s="30">
+        <v>53.585576209999999</v>
+      </c>
+      <c r="D77" s="30">
+        <v>-113.49898469999999</v>
+      </c>
+      <c r="E77" s="33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A78" s="22">
+        <v>10808</v>
+      </c>
+      <c r="B78" s="23">
+        <v>44484.438194444447</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F78" s="26">
+        <v>44484</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="28">
+        <v>10810</v>
+      </c>
+      <c r="B79" s="29">
+        <v>44484.810416666667</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="22">
+        <v>10811</v>
+      </c>
+      <c r="B80" s="23">
+        <v>44484.893750000003</v>
+      </c>
+      <c r="C80" s="24">
+        <v>53.447027499999997</v>
+      </c>
+      <c r="D80" s="24">
+        <v>-113.58943410000001</v>
+      </c>
+      <c r="E80" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="I80" s="27" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="28">
+        <v>10812</v>
+      </c>
+      <c r="B81" s="29">
+        <v>44484.901388888888</v>
+      </c>
+      <c r="C81" s="30">
+        <v>53.49935266</v>
+      </c>
+      <c r="D81" s="30">
+        <v>-113.64419410000001</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="22">
+        <v>10813</v>
+      </c>
+      <c r="B82" s="23">
+        <v>44484.925694444442</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A83" s="28">
+        <v>10814</v>
+      </c>
+      <c r="B83" s="29">
+        <v>44485.410416666666</v>
+      </c>
+      <c r="C83" s="30">
+        <v>53.447053050000001</v>
+      </c>
+      <c r="D83" s="30">
+        <v>-113.586591</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="22">
+        <v>10815</v>
+      </c>
+      <c r="B84" s="23">
+        <v>44485.421527777777</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="I84" s="27" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="28">
+        <v>10816</v>
+      </c>
+      <c r="B85" s="29">
+        <v>44485.90625</v>
+      </c>
+      <c r="C85" s="30">
+        <v>53.465342890000002</v>
+      </c>
+      <c r="D85" s="30">
+        <v>-113.370362</v>
+      </c>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="30"/>
+      <c r="I85" s="32"/>
+    </row>
+    <row r="86" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="22">
+        <v>10817</v>
+      </c>
+      <c r="B86" s="23">
+        <v>44486.047222222223</v>
+      </c>
+      <c r="C86" s="24">
+        <v>53.417304870000002</v>
+      </c>
+      <c r="D86" s="24">
+        <v>-113.57887700000001</v>
+      </c>
+      <c r="E86" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="I86" s="27" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="28">
+        <v>10818</v>
+      </c>
+      <c r="B87" s="29">
+        <v>44486.224305555559</v>
+      </c>
+      <c r="C87" s="30">
+        <v>53.58747091</v>
+      </c>
+      <c r="D87" s="30">
+        <v>-113.5128088</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F87" s="31">
+        <v>44357</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="I87" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="22">
+        <v>10819</v>
+      </c>
+      <c r="B88" s="23">
+        <v>44486.507638888892</v>
+      </c>
+      <c r="C88" s="24">
+        <v>53.464391220000003</v>
+      </c>
+      <c r="D88" s="24">
+        <v>-113.50911809999999</v>
+      </c>
+      <c r="E88" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="I88" s="27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="28">
+        <v>10820</v>
+      </c>
+      <c r="B89" s="29">
+        <v>44487.186111111114</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="22">
+        <v>10821</v>
+      </c>
+      <c r="B90" s="23">
+        <v>44487.553472222222</v>
+      </c>
+      <c r="C90" s="24">
+        <v>53.569214610000003</v>
+      </c>
+      <c r="D90" s="24">
+        <v>-113.4763951</v>
+      </c>
+      <c r="E90" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="I90" s="27" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="28">
+        <v>10822</v>
+      </c>
+      <c r="B91" s="29">
+        <v>44488.417361111111</v>
+      </c>
+      <c r="C91" s="30">
+        <v>53.479768610000001</v>
+      </c>
+      <c r="D91" s="30">
+        <v>-113.6613602</v>
+      </c>
+      <c r="E91" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="30"/>
+      <c r="I91" s="32" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="22">
+        <v>10823</v>
+      </c>
+      <c r="B92" s="23">
+        <v>44488.511805555558</v>
+      </c>
+      <c r="C92" s="24">
+        <v>53.569214610000003</v>
+      </c>
+      <c r="D92" s="24">
+        <v>-113.4763951</v>
+      </c>
+      <c r="E92" s="25">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="I92" s="27" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="28">
+        <v>10824</v>
+      </c>
+      <c r="B93" s="29">
+        <v>44488.658333333333</v>
+      </c>
+      <c r="C93" s="30">
+        <v>53.450828979999997</v>
+      </c>
+      <c r="D93" s="30">
+        <v>-113.54024649999999</v>
+      </c>
+      <c r="E93" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="F93" s="31">
+        <v>44479</v>
+      </c>
+      <c r="G93" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" s="22">
+        <v>10825</v>
+      </c>
+      <c r="B94" s="23">
+        <v>44488.784722222219</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="I94" s="27" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="28">
+        <v>10826</v>
+      </c>
+      <c r="B95" s="29">
+        <v>44489.587500000001</v>
+      </c>
+      <c r="C95" s="30">
+        <v>53.466741620000001</v>
+      </c>
+      <c r="D95" s="30">
+        <v>-113.506865</v>
+      </c>
+      <c r="E95" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="I95" s="32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="22">
+        <v>10827</v>
+      </c>
+      <c r="B96" s="23">
+        <v>44489.824305555558</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="25">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="I96" s="27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" s="28">
+        <v>10828</v>
+      </c>
+      <c r="B97" s="29">
+        <v>44490.378472222219</v>
+      </c>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="33">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="22">
+        <v>10829</v>
+      </c>
+      <c r="B98" s="23">
+        <v>44490.406944444447</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="I98" s="27" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="28">
+        <v>10830</v>
+      </c>
+      <c r="B99" s="29">
+        <v>44490.540277777778</v>
+      </c>
+      <c r="C99" s="30">
+        <v>53.488859589999997</v>
+      </c>
+      <c r="D99" s="30">
+        <v>-113.52875179999999</v>
+      </c>
+      <c r="E99" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="I99" s="32"/>
+    </row>
+    <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="22">
+        <v>10831</v>
+      </c>
+      <c r="B100" s="23">
+        <v>44490.830555555556</v>
+      </c>
+      <c r="C100" s="24">
+        <v>53.564690720000002</v>
+      </c>
+      <c r="D100" s="24">
+        <v>-113.4978313</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="I100" s="27" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="28">
+        <v>10832</v>
+      </c>
+      <c r="B101" s="29">
+        <v>44491.494444444441</v>
+      </c>
+      <c r="C101" s="30">
+        <v>53.563499139999998</v>
+      </c>
+      <c r="D101" s="30">
+        <v>-113.49893640000001</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="I101" s="32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>